--- a/library/diode.xlsx
+++ b/library/diode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0F163-BEE8-4707-8321-E07DB518C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0103C903-9CA8-4938-9853-D3FC3534B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="3600" windowWidth="21600" windowHeight="9225" activeTab="1" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE2E7F00-6B54-4C0B-98D7-835E87062BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="array" sheetId="1" r:id="rId1"/>
@@ -654,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67671D6E-5D55-4C0C-9FE7-A86F937C6875}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,19 +710,6 @@
       <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -733,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E834B2D-3CFC-49B2-A2B4-67F2231F306F}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
